--- a/Document/Tasksheet.xlsx
+++ b/Document/Tasksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>No.</t>
   </si>
@@ -589,6 +589,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,12 +608,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -915,7 +915,8 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -961,10 +962,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="29">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -981,8 +982,8 @@
       <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
@@ -997,8 +998,8 @@
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
         <v>47</v>
       </c>
@@ -1013,8 +1014,8 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="4" t="s">
         <v>48</v>
       </c>
@@ -1027,8 +1028,8 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="4"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1039,24 +1040,24 @@
       <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
+      <c r="A8" s="25">
         <v>2</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1073,8 +1074,8 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1089,12 +1090,14 @@
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1103,12 +1106,14 @@
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1117,8 +1122,8 @@
       <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1131,10 +1136,10 @@
       <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
+      <c r="A13" s="25">
         <v>3</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1142,85 +1147,97 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="8" t="s">
         <v>21</v>
       </c>
@@ -1233,8 +1250,8 @@
       <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="7" t="s">
         <v>22</v>
       </c>
@@ -1247,8 +1264,8 @@
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="8" t="s">
         <v>23</v>
       </c>
@@ -1261,8 +1278,8 @@
       <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1275,8 +1292,8 @@
       <c r="J22" s="15"/>
     </row>
     <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="8" t="s">
         <v>25</v>
       </c>
@@ -1289,12 +1306,14 @@
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1303,10 +1322,10 @@
       <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="27">
+      <c r="A25" s="29">
         <v>4</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1321,8 +1340,8 @@
       <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
@@ -1335,8 +1354,8 @@
       <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="10" t="s">
         <v>55</v>
       </c>
@@ -1349,8 +1368,8 @@
       <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="11" t="s">
         <v>56</v>
       </c>
@@ -1363,8 +1382,8 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="11" t="s">
         <v>57</v>
       </c>
@@ -1377,8 +1396,8 @@
       <c r="J29" s="15"/>
     </row>
     <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="12" t="s">
         <v>28</v>
       </c>
@@ -1391,8 +1410,8 @@
       <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="10" t="s">
         <v>29</v>
       </c>
@@ -1405,8 +1424,8 @@
       <c r="J31" s="15"/>
     </row>
     <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="11" t="s">
         <v>30</v>
       </c>
@@ -1419,8 +1438,8 @@
       <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="11" t="s">
         <v>31</v>
       </c>
@@ -1433,8 +1452,8 @@
       <c r="J33" s="15"/>
     </row>
     <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="13" t="s">
         <v>32</v>
       </c>
@@ -1447,8 +1466,8 @@
       <c r="J34" s="15"/>
     </row>
     <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="8" t="s">
         <v>51</v>
       </c>
@@ -1461,8 +1480,8 @@
       <c r="J35" s="15"/>
     </row>
     <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="8" t="s">
         <v>52</v>
       </c>
@@ -1475,8 +1494,8 @@
       <c r="J36" s="15"/>
     </row>
     <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="8" t="s">
         <v>53</v>
       </c>
@@ -1489,8 +1508,8 @@
       <c r="J37" s="15"/>
     </row>
     <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="13" t="s">
         <v>49</v>
       </c>
@@ -1503,8 +1522,8 @@
       <c r="J38" s="15"/>
     </row>
     <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="13" t="s">
         <v>50</v>
       </c>
@@ -1517,10 +1536,10 @@
       <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="24">
+      <c r="A40" s="26">
         <v>5</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1535,8 +1554,8 @@
       <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="5" t="s">
         <v>33</v>
       </c>
@@ -1549,8 +1568,8 @@
       <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="11" t="s">
         <v>35</v>
       </c>
@@ -1563,8 +1582,8 @@
       <c r="J42" s="15"/>
     </row>
     <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
-      <c r="B43" s="30"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="11" t="s">
         <v>36</v>
       </c>
@@ -1577,8 +1596,8 @@
       <c r="J43" s="15"/>
     </row>
     <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="B44" s="30"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="5" t="s">
         <v>34</v>
       </c>
@@ -1591,8 +1610,8 @@
       <c r="J44" s="15"/>
     </row>
     <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="B45" s="30"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="11" t="s">
         <v>35</v>
       </c>
@@ -1605,8 +1624,8 @@
       <c r="J45" s="15"/>
     </row>
     <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="25"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="11" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1638,8 @@
       <c r="J46" s="15"/>
     </row>
     <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="30"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="4" t="s">
         <v>60</v>
       </c>
@@ -1633,8 +1652,8 @@
       <c r="J47" s="15"/>
     </row>
     <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="30"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="13" t="s">
         <v>37</v>
       </c>
@@ -1647,8 +1666,8 @@
       <c r="J48" s="15"/>
     </row>
     <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="11" t="s">
         <v>18</v>
       </c>
@@ -1661,8 +1680,8 @@
       <c r="J49" s="15"/>
     </row>
     <row r="50" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="11" t="s">
         <v>39</v>
       </c>
@@ -1675,8 +1694,8 @@
       <c r="J50" s="15"/>
     </row>
     <row r="51" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="11" t="s">
         <v>40</v>
       </c>
@@ -1689,8 +1708,8 @@
       <c r="J51" s="15"/>
     </row>
     <row r="52" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
-      <c r="B52" s="30"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="13" t="s">
         <v>38</v>
       </c>
@@ -1703,8 +1722,8 @@
       <c r="J52" s="15"/>
     </row>
     <row r="53" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
-      <c r="B53" s="30"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="11" t="s">
         <v>18</v>
       </c>
@@ -1717,8 +1736,8 @@
       <c r="J53" s="15"/>
     </row>
     <row r="54" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="11" t="s">
         <v>39</v>
       </c>
@@ -1731,8 +1750,8 @@
       <c r="J54" s="15"/>
     </row>
     <row r="55" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="25"/>
-      <c r="B55" s="30"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="13" t="s">
         <v>58</v>
       </c>
@@ -1745,8 +1764,8 @@
       <c r="J55" s="15"/>
     </row>
     <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
-      <c r="B56" s="30"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="11" t="s">
         <v>18</v>
       </c>
@@ -1759,8 +1778,8 @@
       <c r="J56" s="15"/>
     </row>
     <row r="57" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="26"/>
-      <c r="B57" s="30"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="11" t="s">
         <v>39</v>
       </c>
@@ -1773,10 +1792,10 @@
       <c r="J57" s="15"/>
     </row>
     <row r="58" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="24">
+      <c r="A58" s="26">
         <v>6</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="13" t="s">
@@ -1791,8 +1810,8 @@
       <c r="J58" s="15"/>
     </row>
     <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="25"/>
-      <c r="B59" s="28"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="13" t="s">
         <v>43</v>
       </c>
@@ -1805,8 +1824,8 @@
       <c r="J59" s="15"/>
     </row>
     <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="25"/>
-      <c r="B60" s="28"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="11" t="s">
         <v>18</v>
       </c>
@@ -1819,8 +1838,8 @@
       <c r="J60" s="15"/>
     </row>
     <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="11" t="s">
         <v>39</v>
       </c>
@@ -1833,8 +1852,8 @@
       <c r="J61" s="15"/>
     </row>
     <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="25"/>
-      <c r="B62" s="28"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="11" t="s">
         <v>40</v>
       </c>
@@ -1847,8 +1866,8 @@
       <c r="J62" s="15"/>
     </row>
     <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="26"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="13" t="s">
         <v>44</v>
       </c>
@@ -2108,18 +2127,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B40:B57"/>
+    <mergeCell ref="A40:A57"/>
+    <mergeCell ref="B25:B39"/>
+    <mergeCell ref="A25:A39"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B24"/>
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B40:B57"/>
-    <mergeCell ref="A40:A57"/>
-    <mergeCell ref="B25:B39"/>
-    <mergeCell ref="A25:A39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:H84">
